--- a/pages/data_combined_berlabel.xlsx
+++ b/pages/data_combined_berlabel.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PKL - BPS\Raw Data Sakernas Agustus 2024 17 Januari\sakernas xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS 10\Documents\Sakernas_st\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3734C082-D01B-47FC-8970-5575F67DF098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC452F1-EB1E-4FAC-B55B-7ADBD91E651E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E2793BA-31CE-4D77-92E8-13D1EDD2BD72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$161</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -490,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0D69FE-11DE-45F8-B4C1-788768F4C9B8}">
   <dimension ref="A1:AB161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14343,6 +14346,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="H1:H161" xr:uid="{3E0D69FE-11DE-45F8-B4C1-788768F4C9B8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>